--- a/inst/extdata/cost_reporting_params.xlsx
+++ b/inst/extdata/cost_reporting_params.xlsx
@@ -1289,9 +1289,6 @@
     </r>
   </si>
   <si>
-    <t>Post Award Conference Materials CDRL</t>
-  </si>
-  <si>
     <t>Select "TRUE" if your PCO requires any documents presented at the Post Award Conference to have an assoicated CDRL, otherwise "FALSE".</t>
   </si>
   <si>
@@ -1398,6 +1395,9 @@
   </si>
   <si>
     <t>CSDR_plan_attch_numb</t>
+  </si>
+  <si>
+    <t>Post Award Conference Materials CDRL Required</t>
   </si>
 </sst>
 </file>
@@ -2711,7 +2711,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2719,7 +2719,7 @@
     <col min="1" max="1" width="11.7109375" style="11" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="11" customWidth="1"/>
     <col min="3" max="3" width="32.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="5" customWidth="1"/>
@@ -3039,7 +3039,7 @@
         <v xml:space="preserve">FlexFile, Legacy, &gt;&gt;&gt;CSDR_Plan_style&lt;&lt;&lt;                      </v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I12" s="25"/>
     </row>
@@ -3049,7 +3049,7 @@
         <v>204</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>354</v>
@@ -3065,7 +3065,7 @@
         <v xml:space="preserve">MIL-STD-881D, MIL-STD-881C, Other, &gt;&gt;&gt;CSDR_Plan_std&lt;&lt;&lt;                       </v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I13" s="25"/>
     </row>
@@ -3075,7 +3075,7 @@
         <v>205</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>374</v>
@@ -3091,7 +3091,7 @@
         <v xml:space="preserve">Aircraft System (MIL-STD-881D), Electronic System/Generic System (MIL-STD-881D), Missile/Ordnance System (MIL-STD-881D), Strategic Missile Systems (MIL-STD-881D), Sea System (MIL-STD-881D), Space System (MIL-STD-881D), Ground Vehicle System (MIL-STD-881D), Unmanned Maritime System (MIL-STD-881D), Launch Vehicle System (MIL-STD-881D), Information Systems (IS)/Defense Business Systems (DBS) (Investment) (MIL-STD-881D), Aircraft System (MIL-STD-881C), Electronic Systems (MIL-STD-881C), Missile Systems (MIL-STD-881C), Ordnance Systems (MIL-STD-881C), Sea Systems (MIL-STD-881C), Space Systems (MIL-STD-881C), Surface Vehicle Systems (MIL-STD-881C), Unmanned Air Vehicle Systems (MIL-STD-881C), Unmanned Maritime Systems (MIL-STD-881C), Launch Vehicle Systems (MIL-STD-881C), Automated Information Systems (MIL-STD-881C), Other, &gt;&gt;&gt;CSDR_plan_commodity_type&lt;&lt;&lt;            </v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I14" s="25"/>
     </row>
@@ -3116,7 +3116,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I15" s="24"/>
     </row>
@@ -3141,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I16" s="24"/>
     </row>
@@ -3166,7 +3166,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I17" s="24"/>
     </row>
@@ -3185,13 +3185,13 @@
         <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I18" s="28"/>
     </row>
@@ -3216,7 +3216,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I19" s="29"/>
     </row>
@@ -3241,7 +3241,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I20" s="30"/>
     </row>
@@ -3638,7 +3638,7 @@
         <v>111</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>2</v>
@@ -4153,13 +4153,13 @@
     <row r="57" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>402</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>403</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>110</v>
@@ -4171,7 +4171,7 @@
         <v>136</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I57" s="35"/>
     </row>
@@ -4709,7 +4709,7 @@
         <v>270</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>398</v>
@@ -4724,7 +4724,7 @@
         <v>2</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I79" s="36"/>
     </row>
@@ -4831,7 +4831,7 @@
     <row r="84" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>109</v>
@@ -4864,7 +4864,7 @@
         <v>85</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>110</v>
@@ -4876,7 +4876,7 @@
         <v>2</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I85" s="27"/>
     </row>
@@ -4889,7 +4889,7 @@
         <v>86</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>110</v>
@@ -4914,7 +4914,7 @@
         <v>87</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>111</v>
@@ -4939,7 +4939,7 @@
         <v>88</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>111</v>
@@ -5519,7 +5519,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>118</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
         <v>120</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
         <v>121</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
         <v>123</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
         <v>124</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B11" t="s">
         <v>125</v>
@@ -6030,7 +6030,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
         <v>126</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s">
         <v>127</v>
@@ -7584,7 +7584,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D24" t="str">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>

--- a/inst/extdata/cost_reporting_params.xlsx
+++ b/inst/extdata/cost_reporting_params.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\TACOM\MSO\CSA\Data Science Team\02-TACOM-Ground-Vehicle-Data-Collection-Plan-Template\CSDR-Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Germo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF6A9AB6-B901-468E-A7C7-51EB434F8C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="-16230" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="6075" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_input_sheet" sheetId="1" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="reporting_organization_type_list" localSheetId="7">reporting_organization_type[choices]</definedName>
     <definedName name="reporting_organization_type_list">reporting_organization_type[choices]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="486">
   <si>
     <t>Nullable</t>
   </si>
@@ -1399,11 +1400,152 @@
   <si>
     <t>Post Award Conference Materials CDRL Required</t>
   </si>
+  <si>
+    <t>&gt;&gt;&gt;program_name_full&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;CSDR_plan_org_name&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;CSDR_plan_POC_name&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;CSDR_plan_POC_address&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;approved_plan_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;program_name_abbr&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;program_office_name&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;program_office_name_abbr&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;prime_mission_product&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;prime_mission_product_abbr&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;CSDR_plan_POC_extension&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;CSDR_plan_POC_email&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;solicitation_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;contract_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;contractor_name&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;contractor_name_abbr&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;pco_name&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;pco_email&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;cost_rep_sow_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;cdrl_clin_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;RDT_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;FlexFile_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;QtyData_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;MR_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;TDR_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;CWBS_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;CDSR_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;FCHR_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;PCR_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;CBDR_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;SFCHR_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;SDR_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;SMR_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;ERP_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;BOM_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;LSPD_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;AUMC_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;CFSR_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;PaCR_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;PAC_CDRL_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;cdrl_prepared_by&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;cdrl_approved_by&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;submission_instructions&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;CSDR_plan_attch_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;RDT_attach_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;LSPD_attach_numb&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;AUMC_attach_numb&lt;&lt;&lt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="\(###\)\ ###\-####"/>
@@ -1464,7 +1606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1488,40 +1630,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1535,82 +1649,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1634,44 +1672,7 @@
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1695,7 +1696,57 @@
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1705,32 +1756,10 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1742,8 +1771,10 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1753,10 +1784,38 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1764,7 +1823,76 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -1777,7 +1905,9 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1785,8 +1915,12 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1795,44 +1929,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1840,97 +2001,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1939,53 +2049,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2292,6 +2355,53 @@
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2311,98 +2421,98 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="params_input_sheet" displayName="params_input_sheet" ref="B1:I89" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B1:I89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="params_input_sheet" displayName="params_input_sheet" ref="B1:I89" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="B1:I89" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Ref" dataDxfId="13"/>
-    <tableColumn id="2" name="Parameter Name" dataDxfId="12"/>
-    <tableColumn id="3" name="Parameter Description" dataDxfId="11"/>
-    <tableColumn id="4" name="Nullable" dataDxfId="10"/>
-    <tableColumn id="5" name="Input Data Type" dataDxfId="9"/>
-    <tableColumn id="6" name="Available Choices" dataDxfId="8"/>
-    <tableColumn id="7" name="params" dataDxfId="7"/>
-    <tableColumn id="8" name="User Input"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ref" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parameter Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Parameter Description" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nullable" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Input Data Type" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Available Choices" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="params" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="User Input"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="program_ACAT" displayName="program_ACAT" ref="A1:A9" totalsRowShown="0">
-  <autoFilter ref="A1:A9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="program_ACAT" displayName="program_ACAT" ref="A1:A9" totalsRowShown="0">
+  <autoFilter ref="A1:A9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="choices"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="choices"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="acqusition_phase_full" displayName="acqusition_phase_full" ref="A1:B16" totalsRowShown="0">
-  <autoFilter ref="A1:B16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="acqusition_phase_full" displayName="acqusition_phase_full" ref="A1:B16" totalsRowShown="0">
+  <autoFilter ref="A1:B16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="choices"/>
-    <tableColumn id="2" name="acqusition_phase_abbr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="choices"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="acqusition_phase_abbr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="acqusition_phase_abbr" displayName="acqusition_phase_abbr" ref="A1:A16" totalsRowShown="0">
-  <autoFilter ref="A1:A16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="acqusition_phase_abbr" displayName="acqusition_phase_abbr" ref="A1:A16" totalsRowShown="0">
+  <autoFilter ref="A1:A16" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="choices"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="choices"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CSDR_Plan_style" displayName="CSDR_Plan_style" ref="A1:A4" totalsRowShown="0">
-  <autoFilter ref="A1:A4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="CSDR_Plan_style" displayName="CSDR_Plan_style" ref="A1:A4" totalsRowShown="0">
+  <autoFilter ref="A1:A4" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="choices"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="choices"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CSDR_Plan_std" displayName="CSDR_Plan_std" ref="A1:A5" totalsRowShown="0">
-  <autoFilter ref="A1:A5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="CSDR_Plan_std" displayName="CSDR_Plan_std" ref="A1:A5" totalsRowShown="0">
+  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="choices"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="choices"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="CSDR_plan_commodity_type" displayName="CSDR_plan_commodity_type" ref="A1:A24" totalsRowShown="0">
-  <autoFilter ref="A1:A24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="CSDR_plan_commodity_type" displayName="CSDR_plan_commodity_type" ref="A1:A24" totalsRowShown="0">
+  <autoFilter ref="A1:A24" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="choices"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="choices"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="reporting_organization_type" displayName="reporting_organization_type" ref="A1:A5" totalsRowShown="0">
-  <autoFilter ref="A1:A5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="reporting_organization_type" displayName="reporting_organization_type" ref="A1:A5" totalsRowShown="0">
+  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="choices"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="choices"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="cdrl_exhibit" displayName="cdrl_exhibit" ref="A1:A28" totalsRowShown="0">
-  <autoFilter ref="A1:A28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="cdrl_exhibit" displayName="cdrl_exhibit" ref="A1:A28" totalsRowShown="0">
+  <autoFilter ref="A1:A28" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="choices"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="choices"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2704,2393 +2814,2573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="11.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="61.4140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.25" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="38.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="30" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I3" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="I5" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I7" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="38.6" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="7" t="str">
+      <c r="G8" s="3" t="str">
         <f>program_ACAT!D1</f>
         <v xml:space="preserve">ACAT-ID, ACAT-IC, ACAT-II, ACAT-III, ACAT-IV, Pre-ACAT, Other, &gt;&gt;&gt;program_ACAT&lt;&lt;&lt;                     </v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:9" ht="274.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="274.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="7" t="str">
+      <c r="G9" s="3" t="str">
         <f>acqusition_phase_full!D1</f>
         <v xml:space="preserve">Materiel Solution Analysis, Technology Maturation &amp; Risk Reduction, Engineering &amp; Manufacturing Development, Low Rate Initial Production, Full Rate Production, Operations &amp; Sustainment, Pre-Materiel Solution Analysis, Middle Tier Acquisition - Rapid Prototyping, Middle Tier Acquisition - Rapid Fielding, Other Transaction Authority - Research Purpose, Other Transaction Authority - Prototype Purpose, Other Transaction Authority - Production Purpose, Multiple, TBD, &gt;&gt;&gt;acqusition_phase_full&lt;&lt;&lt;                </v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="I9" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="64.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="str">
+      <c r="G10" s="4" t="str">
         <f>acqusition_phase_abbr!D1</f>
         <v xml:space="preserve">MSA, TMRR, EMD, LRIP, FRP, O&amp;S, Pre-MSA, MTA - RP, MTA - RF, OTA - R, OTA - Proto, OTA - Prod, Multiple, TBD, &gt;&gt;&gt;acqusition_phase_abbr&lt;&lt;&lt;                </v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="26" t="e">
+      <c r="I10" s="38" t="str">
         <f>VLOOKUP($I$9,acqusition_phase_full[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+        <v>&gt;&gt;&gt;acqusition_phase_abbr&lt;&lt;&lt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I11" s="30" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="38.6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="str">
+      <c r="G12" s="3" t="str">
         <f>CSDR_Plan_style!D1</f>
         <v xml:space="preserve">FlexFile, Legacy, &gt;&gt;&gt;CSDR_Plan_style&lt;&lt;&lt;                      </v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I12" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="38.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="str">
+      <c r="G13" s="3" t="str">
         <f>CSDR_Plan_std!D1</f>
         <v xml:space="preserve">MIL-STD-881D, MIL-STD-881C, Other, &gt;&gt;&gt;CSDR_Plan_std&lt;&lt;&lt;                       </v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="str">
+      <c r="G14" s="3" t="str">
         <f>CSDR_plan_commodity_type!D1</f>
         <v xml:space="preserve">Aircraft System (MIL-STD-881D), Electronic System/Generic System (MIL-STD-881D), Missile/Ordnance System (MIL-STD-881D), Strategic Missile Systems (MIL-STD-881D), Sea System (MIL-STD-881D), Space System (MIL-STD-881D), Ground Vehicle System (MIL-STD-881D), Unmanned Maritime System (MIL-STD-881D), Launch Vehicle System (MIL-STD-881D), Information Systems (IS)/Defense Business Systems (DBS) (Investment) (MIL-STD-881D), Aircraft System (MIL-STD-881C), Electronic Systems (MIL-STD-881C), Missile Systems (MIL-STD-881C), Ordnance Systems (MIL-STD-881C), Sea Systems (MIL-STD-881C), Space Systems (MIL-STD-881C), Surface Vehicle Systems (MIL-STD-881C), Unmanned Air Vehicle Systems (MIL-STD-881C), Unmanned Maritime Systems (MIL-STD-881C), Launch Vehicle Systems (MIL-STD-881C), Automated Information Systems (MIL-STD-881C), Other, &gt;&gt;&gt;CSDR_plan_commodity_type&lt;&lt;&lt;            </v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I14" s="12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="I15" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51.45" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="I16" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="64.3" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I17" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="38.6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I18" s="13">
+        <v>5865555555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="38.6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="20" t="s">
+      <c r="I19" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="26.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="I20" s="14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="64.3" x14ac:dyDescent="0.35">
+      <c r="A21" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I21" s="30" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="I22" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="51.45" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="7" t="str">
+      <c r="G23" s="3" t="str">
         <f>reporting_organization_type!D1</f>
         <v xml:space="preserve">Prime Contractor, Subcontractor, Government, &gt;&gt;&gt;reporting_organization_type&lt;&lt;&lt;                       </v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I23" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="38.6" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I24" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="I25" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="64.3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="I26" s="15">
+        <f ca="1">TODAY()</f>
+        <v>43765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="51.45" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I27" s="15">
+        <f ca="1">TODAY()</f>
+        <v>43765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="38.6" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="I28" s="15">
+        <f ca="1">TODAY()</f>
+        <v>43765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="51.45" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="I29" s="15">
+        <f ca="1">TODAY()</f>
+        <v>43765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="32"/>
-    </row>
-    <row r="31" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="I30" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="102.9" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="I31" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="102.9" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="I32" s="32"/>
-    </row>
-    <row r="33" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="I32" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="102.9" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="I33" s="32"/>
-    </row>
-    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I33" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="24"/>
-    </row>
-    <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I34" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I35" s="24"/>
-    </row>
-    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I35" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="28"/>
-    </row>
-    <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="20" t="s">
+      <c r="I36" s="13">
+        <v>5865555555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="51.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I37" s="30"/>
-    </row>
-    <row r="38" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="I37" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="38.6" x14ac:dyDescent="0.35">
+      <c r="A38" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="9" t="b">
+      <c r="G38" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I38" s="31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="I39" s="34"/>
-    </row>
-    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I39" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="I40" s="34"/>
-    </row>
-    <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I40" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="I41" s="25"/>
-    </row>
-    <row r="42" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I41" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="I42" s="25"/>
-    </row>
-    <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I42" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="I43" s="34"/>
-    </row>
-    <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I43" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="I44" s="34"/>
-    </row>
-    <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I44" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="I45" s="34"/>
-    </row>
-    <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I45" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="I46" s="34"/>
-    </row>
-    <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I46" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I47" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="38.6" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="I48" s="34"/>
-    </row>
-    <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I48" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="I49" s="25"/>
-    </row>
-    <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I49" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="I50" s="25"/>
-    </row>
-    <row r="51" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I50" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="38.6" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="I51" s="25"/>
-    </row>
-    <row r="52" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I51" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="I52" s="25"/>
-    </row>
-    <row r="53" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I52" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="I53" s="25"/>
-    </row>
-    <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I53" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="I54" s="25"/>
-    </row>
-    <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I54" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="I55" s="25"/>
-    </row>
-    <row r="56" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I55" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="I56" s="35"/>
-    </row>
-    <row r="57" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I56" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="26.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="I57" s="35"/>
-    </row>
-    <row r="58" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="I57" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="64.3" x14ac:dyDescent="0.35">
+      <c r="A58" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I58" s="27"/>
-    </row>
-    <row r="59" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="I58" s="30" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="64.3" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="7" t="str">
+      <c r="G59" s="3" t="str">
         <f>cdrl_exhibit!D1</f>
         <v xml:space="preserve">A, B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q, R, S, T, U, V, W, X, Y, Z, &gt;&gt;&gt;cdrl_exhibit&lt;&lt;&lt;          </v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I59" s="25"/>
-    </row>
-    <row r="60" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I59" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I60" s="24"/>
-    </row>
-    <row r="61" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I60" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I61" s="36"/>
-    </row>
-    <row r="62" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I61" s="19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="H62" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I62" s="36"/>
-    </row>
-    <row r="63" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I62" s="19" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I63" s="36"/>
-    </row>
-    <row r="64" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I63" s="19" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I64" s="36"/>
-    </row>
-    <row r="65" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I64" s="19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="H65" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I65" s="36"/>
-    </row>
-    <row r="66" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I65" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I66" s="36"/>
-    </row>
-    <row r="67" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I66" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I67" s="36"/>
-    </row>
-    <row r="68" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I67" s="19" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H68" s="13" t="s">
+      <c r="H68" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I68" s="36"/>
-    </row>
-    <row r="69" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I68" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H69" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I69" s="36"/>
-    </row>
-    <row r="70" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I69" s="19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="13" t="s">
+      <c r="H70" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I70" s="36"/>
-    </row>
-    <row r="71" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I70" s="19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I71" s="36"/>
-    </row>
-    <row r="72" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I71" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="13" t="s">
+      <c r="H72" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I72" s="36"/>
-    </row>
-    <row r="73" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I72" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H73" s="13" t="s">
+      <c r="H73" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I73" s="36"/>
-    </row>
-    <row r="74" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I73" s="19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I74" s="36"/>
-    </row>
-    <row r="75" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I74" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H75" s="13" t="s">
+      <c r="H75" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I75" s="36"/>
-    </row>
-    <row r="76" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I75" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="13" t="s">
+      <c r="H76" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="36"/>
-    </row>
-    <row r="77" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I76" s="19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H77" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I77" s="36"/>
-    </row>
-    <row r="78" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I77" s="19" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="13" t="s">
+      <c r="H78" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I78" s="36"/>
-    </row>
-    <row r="79" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I78" s="19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="H79" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="I79" s="36"/>
-    </row>
-    <row r="80" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I79" s="19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="38.6" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G80" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="13" t="s">
+      <c r="H80" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I80" s="24"/>
-    </row>
-    <row r="81" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I80" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G81" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="13" t="s">
+      <c r="H81" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I81" s="31"/>
-    </row>
-    <row r="82" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I81" s="15">
+        <f ca="1">TODAY()</f>
+        <v>43765</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H82" s="13" t="s">
+      <c r="H82" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I82" s="24"/>
-    </row>
-    <row r="83" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I82" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G83" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H83" s="13" t="s">
+      <c r="H83" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I83" s="31"/>
-    </row>
-    <row r="84" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="20" t="s">
+      <c r="I83" s="15">
+        <f ca="1">TODAY()</f>
+        <v>43765</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="64.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="1"/>
+      <c r="B84" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H84" s="14" t="s">
+      <c r="H84" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I84" s="30"/>
-    </row>
-    <row r="85" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+      <c r="I84" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="51.45" x14ac:dyDescent="0.35">
+      <c r="A85" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H85" s="15" t="s">
+      <c r="H85" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="I85" s="27"/>
-    </row>
-    <row r="86" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="I85" s="30" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="51.45" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G86" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H86" s="13" t="s">
+      <c r="H86" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I86" s="24"/>
-    </row>
-    <row r="87" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="I86" s="11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H87" s="13" t="s">
+      <c r="H87" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I87" s="36"/>
-    </row>
-    <row r="88" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
-      <c r="B88" s="20" t="s">
+      <c r="I87" s="19" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="77.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="1"/>
+      <c r="B88" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I88" s="37"/>
-    </row>
-    <row r="89" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="I88" s="20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C89" s="39" t="s">
+      <c r="C89" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D89" s="39" t="s">
+      <c r="D89" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E89" s="39" t="s">
+      <c r="E89" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="F89" s="39" t="s">
+      <c r="F89" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="G89" s="39" t="s">
+      <c r="G89" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="H89" s="40" t="s">
+      <c r="H89" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I89" s="41"/>
+      <c r="I89" s="25" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sort="0"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>ISNA($I$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:I78">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>I39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$I$53=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$I$54=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48 I44:I46">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$I$12="Legacy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I40">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$I$12="FlexFile"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>I57</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="21">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>program_ACAT_list</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I9">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>acqusition_phase_full_list</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I10">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I10" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>acqusition_phase_abbr_list</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I23">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I23" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>reporting_organization_type_list</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select either &quot;TRUE&quot; or &quot;FALSE&quot; from the cell drop down." sqref="I89 I39:I57">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select either &quot;TRUE&quot; or &quot;FALSE&quot; from the cell drop down." sqref="I89 I39:I57" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I12">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I12" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>CSDR_plan_style_list</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I14">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I14" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>CSDR_plan_commodity_type_list</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I59" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>cdrl_exhibit_list</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I13">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Select one of the available options from the cell drop down." sqref="I13" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>CSDR_plan_std_list</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please input the Phone Number as 10 consecutive digits, without ()'s, -'s, or .'s." sqref="I18">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please input the Phone Number as 10 consecutive digits, without ()'s, -'s, or .'s." sqref="I18" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>1000000000</formula1>
       <formula2>9999999999</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Program Name" error="Entered value must be text. Please see &quot;Parameter Description&quot; for more info." sqref="I2">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Program Name" error="Entered value must be text. Please see &quot;Parameter Description&quot; for more info." sqref="I2" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value must be text. Please see &quot;Parameter Description&quot; for more info." sqref="I58 I87:I88 I19:I20 I11 I15:I17 I61:I79">
+    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value must be text. Please see &quot;Parameter Description&quot; for more info." sqref="I58 I87:I88 I19:I20 I11 I15:I17 I61:I79" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" error="Entered value must be text. Please see &quot;Parameter Description&quot; for more info." sqref="I3:I7 I21:I22 I24:I25 I34 I80 I82 I85:I86">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" error="Entered value must be text. Please see &quot;Parameter Description&quot; for more info." sqref="I3:I7 I21:I22 I24:I25 I34 I80 I82 I85:I86" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I35">
+    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I35" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" error="Entered value must be text. Please see &quot;Parameter Description&quot; for more info." sqref="I60">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" error="Entered value must be text. Please see &quot;Parameter Description&quot; for more info." sqref="I60" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="date" errorStyle="warning" showInputMessage="1" showErrorMessage="1" error="Entered value must be a date. Please see &quot;Parameter Description&quot; for more info." sqref="I81 I83 I26:I29">
+    <dataValidation type="date" errorStyle="warning" showInputMessage="1" showErrorMessage="1" error="Entered value must be a date. Please see &quot;Parameter Description&quot; for more info." sqref="I81 I83 I26:I29" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" error="Only decimal values are allowed.  See &quot;Parameter Description&quot; for more info." sqref="I30:I33">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" error="Only decimal values are allowed.  See &quot;Parameter Description&quot; for more info." sqref="I30:I33" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please input the Phone Number as 10 consecutive digits, without ()'s, -'s, or .'s." sqref="I36">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please input the Phone Number as 10 consecutive digits, without ()'s, -'s, or .'s." sqref="I36" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>1000000000</formula1>
       <formula2>9999999999</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I38">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I38" xr:uid="{00000000-0002-0000-0000-000012000000}">
       <formula1>"TRUE"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" error="Entered value must be text. Please see &quot;Parameter Description&quot; for more info." sqref="I37">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" error="Entered value must be text. Please see &quot;Parameter Description&quot; for more info." sqref="I37" xr:uid="{00000000-0002-0000-0000-000013000000}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value must be text. Please see &quot;Parameter Description&quot; for more info." sqref="I84">
+    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value must be text. Please see &quot;Parameter Description&quot; for more info." sqref="I84" xr:uid="{00000000-0002-0000-0000-000014000000}">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
@@ -5104,14 +5394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -5120,7 +5410,7 @@
         <v xml:space="preserve">A, B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q, R, S, T, U, V, W, X, Y, Z, &gt;&gt;&gt;cdrl_exhibit&lt;&lt;&lt;          </v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -5129,7 +5419,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -5138,7 +5428,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -5147,7 +5437,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -5156,7 +5446,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -5165,7 +5455,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -5174,7 +5464,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -5183,7 +5473,7 @@
         <v>G</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -5192,7 +5482,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -5201,7 +5491,7 @@
         <v>I</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -5210,7 +5500,7 @@
         <v>J</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -5219,7 +5509,7 @@
         <v>K</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>147</v>
       </c>
@@ -5228,7 +5518,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -5237,7 +5527,7 @@
         <v>M</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -5246,7 +5536,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -5255,7 +5545,7 @@
         <v>O</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>151</v>
       </c>
@@ -5264,7 +5554,7 @@
         <v>P</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -5273,7 +5563,7 @@
         <v>Q</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>153</v>
       </c>
@@ -5282,7 +5572,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>154</v>
       </c>
@@ -5291,7 +5581,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>155</v>
       </c>
@@ -5300,7 +5590,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>156</v>
       </c>
@@ -5309,7 +5599,7 @@
         <v>U</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>157</v>
       </c>
@@ -5318,7 +5608,7 @@
         <v>V</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -5327,7 +5617,7 @@
         <v>W</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -5336,7 +5626,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -5345,7 +5635,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -5354,7 +5644,7 @@
         <v>Z</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -5363,139 +5653,139 @@
         <v>&gt;&gt;&gt;cdrl_exhibit&lt;&lt;&lt;</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D29" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D30" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D31" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D32" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" t="e">
         <f>cdrl_exhibit[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
@@ -5510,14 +5800,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>424</v>
       </c>
@@ -5528,20 +5818,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -5550,7 +5840,7 @@
         <v xml:space="preserve">ACAT-ID, ACAT-IC, ACAT-II, ACAT-III, ACAT-IV, Pre-ACAT, Other, &gt;&gt;&gt;program_ACAT&lt;&lt;&lt;                     </v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -5559,7 +5849,7 @@
         <v>ACAT-ID</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -5568,7 +5858,7 @@
         <v>ACAT-IC</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -5577,7 +5867,7 @@
         <v>ACAT-II</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -5586,7 +5876,7 @@
         <v>ACAT-III</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -5595,7 +5885,7 @@
         <v>ACAT-IV</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>327</v>
       </c>
@@ -5604,7 +5894,7 @@
         <v>Pre-ACAT</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -5613,7 +5903,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>170</v>
       </c>
@@ -5622,253 +5912,253 @@
         <v>&gt;&gt;&gt;program_ACAT&lt;&lt;&lt;</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D16" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D28" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D31" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D32" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" t="e">
         <f>program_ACAT[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
@@ -5883,20 +6173,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -5908,7 +6198,7 @@
         <v xml:space="preserve">Materiel Solution Analysis, Technology Maturation &amp; Risk Reduction, Engineering &amp; Manufacturing Development, Low Rate Initial Production, Full Rate Production, Operations &amp; Sustainment, Pre-Materiel Solution Analysis, Middle Tier Acquisition - Rapid Prototyping, Middle Tier Acquisition - Rapid Fielding, Other Transaction Authority - Research Purpose, Other Transaction Authority - Prototype Purpose, Other Transaction Authority - Production Purpose, Multiple, TBD, &gt;&gt;&gt;acqusition_phase_full&lt;&lt;&lt;                </v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -5920,7 +6210,7 @@
         <v>Materiel Solution Analysis</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>414</v>
       </c>
@@ -5932,7 +6222,7 @@
         <v>Technology Maturation &amp; Risk Reduction</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>415</v>
       </c>
@@ -5944,7 +6234,7 @@
         <v>Engineering &amp; Manufacturing Development</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>416</v>
       </c>
@@ -5956,7 +6246,7 @@
         <v>Low Rate Initial Production</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>417</v>
       </c>
@@ -5968,7 +6258,7 @@
         <v>Full Rate Production</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>418</v>
       </c>
@@ -5980,7 +6270,7 @@
         <v>Operations &amp; Sustainment</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -5992,7 +6282,7 @@
         <v>Pre-Materiel Solution Analysis</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>419</v>
       </c>
@@ -6004,7 +6294,7 @@
         <v>Middle Tier Acquisition - Rapid Prototyping</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>420</v>
       </c>
@@ -6016,7 +6306,7 @@
         <v>Middle Tier Acquisition - Rapid Fielding</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>421</v>
       </c>
@@ -6028,7 +6318,7 @@
         <v>Other Transaction Authority - Research Purpose</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -6040,7 +6330,7 @@
         <v>Other Transaction Authority - Prototype Purpose</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>423</v>
       </c>
@@ -6052,7 +6342,7 @@
         <v>Other Transaction Authority - Production Purpose</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -6064,7 +6354,7 @@
         <v>Multiple</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>351</v>
       </c>
@@ -6076,7 +6366,7 @@
         <v>TBD</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -6088,211 +6378,211 @@
         <v>&gt;&gt;&gt;acqusition_phase_full&lt;&lt;&lt;</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D28" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D31" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D32" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" t="e">
         <f>acqusition_phase_full[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
@@ -6307,19 +6597,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -6328,7 +6618,7 @@
         <v xml:space="preserve">MSA, TMRR, EMD, LRIP, FRP, O&amp;S, Pre-MSA, MTA - RP, MTA - RF, OTA - R, OTA - Proto, OTA - Prod, Multiple, TBD, &gt;&gt;&gt;acqusition_phase_abbr&lt;&lt;&lt;                </v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -6337,7 +6627,7 @@
         <v>MSA</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -6346,7 +6636,7 @@
         <v>TMRR</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -6355,7 +6645,7 @@
         <v>EMD</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -6364,7 +6654,7 @@
         <v>LRIP</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -6373,7 +6663,7 @@
         <v>FRP</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -6382,7 +6672,7 @@
         <v>O&amp;S</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -6391,7 +6681,7 @@
         <v>Pre-MSA</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -6400,7 +6690,7 @@
         <v>MTA - RP</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -6409,7 +6699,7 @@
         <v>MTA - RF</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -6418,7 +6708,7 @@
         <v>OTA - R</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -6427,7 +6717,7 @@
         <v>OTA - Proto</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -6436,7 +6726,7 @@
         <v>OTA - Prod</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -6445,7 +6735,7 @@
         <v>Multiple</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>351</v>
       </c>
@@ -6454,7 +6744,7 @@
         <v>TBD</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>166</v>
       </c>
@@ -6463,211 +6753,211 @@
         <v>&gt;&gt;&gt;acqusition_phase_abbr&lt;&lt;&lt;</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D28" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D31" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D32" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" t="e">
         <f>acqusition_phase_abbr[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
@@ -6682,19 +6972,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -6703,7 +6993,7 @@
         <v xml:space="preserve">FlexFile, Legacy, &gt;&gt;&gt;CSDR_Plan_style&lt;&lt;&lt;                      </v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -6712,7 +7002,7 @@
         <v>FlexFile</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -6721,7 +7011,7 @@
         <v>Legacy</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -6730,283 +7020,283 @@
         <v>&gt;&gt;&gt;CSDR_Plan_style&lt;&lt;&lt;</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D5" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D16" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D28" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D31" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D32" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" t="e">
         <f>CSDR_Plan_style[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
@@ -7021,19 +7311,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -7042,7 +7332,7 @@
         <v xml:space="preserve">MIL-STD-881D, MIL-STD-881C, Other, &gt;&gt;&gt;CSDR_Plan_std&lt;&lt;&lt;                       </v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -7051,7 +7341,7 @@
         <v>MIL-STD-881D</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -7060,7 +7350,7 @@
         <v>MIL-STD-881C</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -7069,7 +7359,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -7078,277 +7368,277 @@
         <v>&gt;&gt;&gt;CSDR_Plan_std&lt;&lt;&lt;</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D16" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D28" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D31" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D32" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" t="e">
         <f>CSDR_Plan_std[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
@@ -7363,19 +7653,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="73.42578125" customWidth="1"/>
+    <col min="1" max="1" width="73.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -7384,7 +7674,7 @@
         <v xml:space="preserve">Aircraft System (MIL-STD-881D), Electronic System/Generic System (MIL-STD-881D), Missile/Ordnance System (MIL-STD-881D), Strategic Missile Systems (MIL-STD-881D), Sea System (MIL-STD-881D), Space System (MIL-STD-881D), Ground Vehicle System (MIL-STD-881D), Unmanned Maritime System (MIL-STD-881D), Launch Vehicle System (MIL-STD-881D), Information Systems (IS)/Defense Business Systems (DBS) (Investment) (MIL-STD-881D), Aircraft System (MIL-STD-881C), Electronic Systems (MIL-STD-881C), Missile Systems (MIL-STD-881C), Ordnance Systems (MIL-STD-881C), Sea Systems (MIL-STD-881C), Space Systems (MIL-STD-881C), Surface Vehicle Systems (MIL-STD-881C), Unmanned Air Vehicle Systems (MIL-STD-881C), Unmanned Maritime Systems (MIL-STD-881C), Launch Vehicle Systems (MIL-STD-881C), Automated Information Systems (MIL-STD-881C), Other, &gt;&gt;&gt;CSDR_plan_commodity_type&lt;&lt;&lt;            </v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>332</v>
       </c>
@@ -7393,7 +7683,7 @@
         <v>Aircraft System (MIL-STD-881D)</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>333</v>
       </c>
@@ -7402,7 +7692,7 @@
         <v>Electronic System/Generic System (MIL-STD-881D)</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>334</v>
       </c>
@@ -7411,7 +7701,7 @@
         <v>Missile/Ordnance System (MIL-STD-881D)</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>335</v>
       </c>
@@ -7420,7 +7710,7 @@
         <v>Strategic Missile Systems (MIL-STD-881D)</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>336</v>
       </c>
@@ -7429,7 +7719,7 @@
         <v>Sea System (MIL-STD-881D)</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -7438,7 +7728,7 @@
         <v>Space System (MIL-STD-881D)</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>338</v>
       </c>
@@ -7447,7 +7737,7 @@
         <v>Ground Vehicle System (MIL-STD-881D)</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>339</v>
       </c>
@@ -7456,7 +7746,7 @@
         <v>Unmanned Maritime System (MIL-STD-881D)</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>340</v>
       </c>
@@ -7465,7 +7755,7 @@
         <v>Launch Vehicle System (MIL-STD-881D)</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>341</v>
       </c>
@@ -7474,7 +7764,7 @@
         <v>Information Systems (IS)/Defense Business Systems (DBS) (Investment) (MIL-STD-881D)</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>363</v>
       </c>
@@ -7483,7 +7773,7 @@
         <v>Aircraft System (MIL-STD-881C)</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>364</v>
       </c>
@@ -7492,7 +7782,7 @@
         <v>Electronic Systems (MIL-STD-881C)</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>365</v>
       </c>
@@ -7501,7 +7791,7 @@
         <v>Missile Systems (MIL-STD-881C)</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>366</v>
       </c>
@@ -7510,7 +7800,7 @@
         <v>Ordnance Systems (MIL-STD-881C)</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>367</v>
       </c>
@@ -7519,7 +7809,7 @@
         <v>Sea Systems (MIL-STD-881C)</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>368</v>
       </c>
@@ -7528,7 +7818,7 @@
         <v>Space Systems (MIL-STD-881C)</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>369</v>
       </c>
@@ -7537,7 +7827,7 @@
         <v>Surface Vehicle Systems (MIL-STD-881C)</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>370</v>
       </c>
@@ -7546,7 +7836,7 @@
         <v>Unmanned Air Vehicle Systems (MIL-STD-881C)</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>371</v>
       </c>
@@ -7555,7 +7845,7 @@
         <v>Unmanned Maritime Systems (MIL-STD-881C)</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>372</v>
       </c>
@@ -7564,7 +7854,7 @@
         <v>Launch Vehicle Systems (MIL-STD-881C)</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>373</v>
       </c>
@@ -7573,7 +7863,7 @@
         <v>Automated Information Systems (MIL-STD-881C)</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -7582,7 +7872,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>429</v>
       </c>
@@ -7591,163 +7881,163 @@
         <v>&gt;&gt;&gt;CSDR_plan_commodity_type&lt;&lt;&lt;</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D25" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D26" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D27" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D28" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D29" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D30" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D31" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D32" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" t="e">
         <f>CSDR_plan_commodity_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
@@ -7762,17 +8052,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -7781,7 +8071,7 @@
         <v xml:space="preserve">Prime Contractor, Subcontractor, Government, &gt;&gt;&gt;reporting_organization_type&lt;&lt;&lt;                       </v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -7790,7 +8080,7 @@
         <v>Prime Contractor</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -7799,7 +8089,7 @@
         <v>Subcontractor</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -7808,7 +8098,7 @@
         <v>Government</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -7817,277 +8107,277 @@
         <v>&gt;&gt;&gt;reporting_organization_type&lt;&lt;&lt;</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D16" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D28" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D31" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D32" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" t="e">
         <f>reporting_organization_type[[#This Row],[choices]]</f>
         <v>#VALUE!</v>
